--- a/tests/data/compare_new5.xlsx
+++ b/tests/data/compare_new5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="24640" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="5880" yWindow="2380" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>key</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>VQSR</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E2" sqref="E2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -498,7 +504,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -514,6 +523,9 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
@@ -529,7 +541,10 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -545,6 +560,12 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>2.9999999999999997E-4</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
@@ -559,8 +580,11 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>4.3E-3</v>
       </c>
     </row>
   </sheetData>
